--- a/outputs-HGR-r202/test-f__Barnesiellaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Barnesiellaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Row</t>
   </si>
@@ -91,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -101,14 +101,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,18 +131,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -149,8 +153,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -160,8 +164,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1</v>

--- a/outputs-HGR-r202/test-f__Barnesiellaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Barnesiellaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>Row</t>
   </si>
@@ -91,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -103,16 +103,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,44 +143,44 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5879.8783442027498</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3757.1413770939603</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2490.3190413447705</v>
       </c>
       <c r="C4">
         <v>1</v>
